--- a/final_data_pipeline/output/322120_kraft_elec_nowhp.xlsx
+++ b/final_data_pipeline/output/322120_kraft_elec_nowhp.xlsx
@@ -763,7 +763,7 @@
         <v>67</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -778,10 +778,10 @@
         <v>4176071.102529631</v>
       </c>
       <c r="N4">
-        <v>1.280428571428571</v>
+        <v>1.368667816644515</v>
       </c>
       <c r="O4">
-        <v>1.342878787878788</v>
+        <v>1.441442038370027</v>
       </c>
       <c r="P4">
         <v>522.0088878162039</v>
@@ -816,7 +816,7 @@
         <v>68</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -1263,7 +1263,7 @@
         <v>67</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="J14">
         <v>8000</v>
@@ -1278,10 +1278,10 @@
         <v>1114910.46700995</v>
       </c>
       <c r="N14">
-        <v>1.280428571428571</v>
+        <v>1.233817681248088</v>
       </c>
       <c r="O14">
-        <v>1.342878787878788</v>
+        <v>1.291146001942376</v>
       </c>
       <c r="P14">
         <v>139.3638083762438</v>
@@ -1316,7 +1316,7 @@
         <v>68</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1863,7 +1863,7 @@
         <v>67</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -1878,10 +1878,10 @@
         <v>2363030.11916691</v>
       </c>
       <c r="N26">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="O26">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="P26">
         <v>295.3787648958637</v>
@@ -1916,7 +1916,7 @@
         <v>68</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J27">
         <v>8000</v>
@@ -2310,7 +2310,7 @@
         <v>67</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="J35">
         <v>8000</v>
@@ -2325,10 +2325,10 @@
         <v>2261439.528325768</v>
       </c>
       <c r="N35">
-        <v>1.280428571428571</v>
+        <v>1.372938473321419</v>
       </c>
       <c r="O35">
-        <v>1.342878787878788</v>
+        <v>1.446233342398694</v>
       </c>
       <c r="P35">
         <v>282.679941040721</v>
@@ -2363,7 +2363,7 @@
         <v>68</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2410,7 +2410,7 @@
         <v>67</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J37">
         <v>8000</v>
@@ -2425,10 +2425,10 @@
         <v>3129595.722448673</v>
       </c>
       <c r="N37">
-        <v>1.280428571428571</v>
+        <v>1.367971510132557</v>
       </c>
       <c r="O37">
-        <v>1.342878787878788</v>
+        <v>1.440661027663225</v>
       </c>
       <c r="P37">
         <v>391.1994653060841</v>
@@ -2463,7 +2463,7 @@
         <v>68</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J38">
         <v>8000</v>
@@ -2510,7 +2510,7 @@
         <v>67</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J39">
         <v>8000</v>
@@ -2525,10 +2525,10 @@
         <v>32615.29017346902</v>
       </c>
       <c r="N39">
-        <v>1.280428571428571</v>
+        <v>1.367971510132557</v>
       </c>
       <c r="O39">
-        <v>1.342878787878788</v>
+        <v>1.440661027663225</v>
       </c>
       <c r="P39">
         <v>4.076911271683628</v>
@@ -2563,7 +2563,7 @@
         <v>68</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J40">
         <v>8000</v>
@@ -3010,7 +3010,7 @@
         <v>67</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J49">
         <v>8000</v>
@@ -3025,10 +3025,10 @@
         <v>921185.5393753938</v>
       </c>
       <c r="N49">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="O49">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="P49">
         <v>115.1481924219242</v>
@@ -3063,7 +3063,7 @@
         <v>68</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J50">
         <v>8000</v>
@@ -3410,7 +3410,7 @@
         <v>69</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J57">
         <v>8000</v>
@@ -3457,7 +3457,7 @@
         <v>67</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J58">
         <v>8000</v>
@@ -3472,10 +3472,10 @@
         <v>4227674.621939821</v>
       </c>
       <c r="N58">
-        <v>1.280428571428571</v>
+        <v>1.304077921028169</v>
       </c>
       <c r="O58">
-        <v>1.342878787878788</v>
+        <v>1.369214264257821</v>
       </c>
       <c r="P58">
         <v>528.4593277424776</v>
@@ -3510,7 +3510,7 @@
         <v>68</v>
       </c>
       <c r="I59">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J59">
         <v>8000</v>
